--- a/zzz_lib/code and data/data/Excel/sandwichstats.xlsx
+++ b/zzz_lib/code and data/data/Excel/sandwichstats.xlsx
@@ -8,21 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40A85A9-B3B5-433C-B87A-B16B040F4D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D3792C-A85D-44C0-A156-70BDE87EDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7BF6652A-90CF-41AD-9F30-D412552C938C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{11BD239C-D33A-4BFF-876C-4327138ADBC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="sanwhichstats" sheetId="1" r:id="rId1"/>
+    <sheet name="sandwichstats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="19">
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>race_ethnicity</t>
+  </si>
+  <si>
+    <t>empstat</t>
   </si>
   <si>
     <t>sandwich_population</t>
@@ -35,6 +44,39 @@
   </si>
   <si>
     <t>sandwich_time_median</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>American Indian</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Asian/Pacific Island</t>
+  </si>
+  <si>
+    <t>NILF</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Two or More Races</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -895,14 +937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C37D742-1029-45F3-8467-16B87BA3FB86}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99EC4E-CA6F-4858-8250-80D91DD8C243}">
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,141 +960,6956 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42005</v>
       </c>
-      <c r="B2">
-        <v>6324424.6210329495</v>
-      </c>
-      <c r="C2">
-        <v>2.53253384487859E-2</v>
-      </c>
-      <c r="D2">
-        <v>3506351002.6312299</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28184.9407909496</v>
+      </c>
+      <c r="F2">
+        <v>1.12862941288912E-4</v>
+      </c>
+      <c r="G2">
+        <v>15269381.180766299</v>
+      </c>
+      <c r="H2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5228.9387540421903</v>
+      </c>
+      <c r="F3">
+        <v>2.09386073214773E-5</v>
+      </c>
+      <c r="G3">
+        <v>3992856.1193896602</v>
+      </c>
+      <c r="H3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>119201.316918575</v>
+      </c>
+      <c r="F4">
+        <v>4.7732621944205299E-4</v>
+      </c>
+      <c r="G4">
+        <v>55822867.432331897</v>
+      </c>
+      <c r="H4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>82766.576542231807</v>
+      </c>
+      <c r="F5">
+        <v>3.3142802527971602E-4</v>
+      </c>
+      <c r="G5">
+        <v>66971005.990569703</v>
+      </c>
+      <c r="H5">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>10216.1752887885</v>
+      </c>
+      <c r="F6">
+        <v>4.0909349441884002E-5</v>
+      </c>
+      <c r="G6">
+        <v>8208881.6515914397</v>
+      </c>
+      <c r="H6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>312482.17879921902</v>
+      </c>
+      <c r="F7">
+        <v>1.2512943724534E-3</v>
+      </c>
+      <c r="G7">
+        <v>137858055.20994699</v>
+      </c>
+      <c r="H7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>74981.397795061406</v>
+      </c>
+      <c r="F8">
+        <v>3.0025328631600199E-4</v>
+      </c>
+      <c r="G8">
+        <v>52859780.3180793</v>
+      </c>
+      <c r="H8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>112874.118999623</v>
+      </c>
+      <c r="F9">
+        <v>4.5198977568130301E-4</v>
+      </c>
+      <c r="G9">
+        <v>87182382.083411902</v>
+      </c>
+      <c r="H9">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>339952.17438392801</v>
+      </c>
+      <c r="F10">
+        <v>1.3612944083548099E-3</v>
+      </c>
+      <c r="G10">
+        <v>192020084.00949001</v>
+      </c>
+      <c r="H10">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>290512.63049979601</v>
+      </c>
+      <c r="F11">
+        <v>1.16332016458642E-3</v>
+      </c>
+      <c r="G11">
+        <v>235518579.30367699</v>
+      </c>
+      <c r="H11">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>80769.374227625798</v>
+      </c>
+      <c r="F12">
+        <v>3.2343048754325797E-4</v>
+      </c>
+      <c r="G12">
+        <v>56107149.339196302</v>
+      </c>
+      <c r="H12">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>22727.918698711801</v>
+      </c>
+      <c r="F13">
+        <v>9.1011003810075695E-5</v>
+      </c>
+      <c r="G13">
+        <v>7419193.0204088697</v>
+      </c>
+      <c r="H13">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>11944.8449986049</v>
+      </c>
+      <c r="F14">
+        <v>4.7831583177055898E-5</v>
+      </c>
+      <c r="G14">
+        <v>6959024.6806036504</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>5825.5638367758902</v>
+      </c>
+      <c r="F15">
+        <v>2.3327715114305702E-5</v>
+      </c>
+      <c r="G15">
+        <v>2924433.0460615</v>
+      </c>
+      <c r="H15">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1342428.90124735</v>
+      </c>
+      <c r="F16">
+        <v>5.3755824924304604E-3</v>
+      </c>
+      <c r="G16">
+        <v>783298558.90383995</v>
+      </c>
+      <c r="H16">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>832398.82047240401</v>
+      </c>
+      <c r="F17">
+        <v>3.3332331581162498E-3</v>
+      </c>
+      <c r="G17">
+        <v>601265172.65096605</v>
+      </c>
+      <c r="H17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>142550.25709351801</v>
+      </c>
+      <c r="F18">
+        <v>5.7082402323978796E-4</v>
+      </c>
+      <c r="G18">
+        <v>93135438.688382193</v>
+      </c>
+      <c r="H18">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>18962.0797860811</v>
+      </c>
+      <c r="F19">
+        <v>7.5931190116224794E-5</v>
+      </c>
+      <c r="G19">
+        <v>9293726.1940211002</v>
+      </c>
+      <c r="H19">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>5118.6218877293204</v>
+      </c>
+      <c r="F20">
+        <v>2.0496857732638501E-5</v>
+      </c>
+      <c r="G20">
+        <v>2542859.59885399</v>
+      </c>
+      <c r="H20">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>1347.8912897534201</v>
+      </c>
+      <c r="F21">
+        <v>5.3974559190177804E-6</v>
+      </c>
+      <c r="G21">
+        <v>1428764.7671386299</v>
+      </c>
+      <c r="H21">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>118787.581639501</v>
+      </c>
+      <c r="F22">
+        <v>4.7566947015676602E-4</v>
+      </c>
+      <c r="G22">
+        <v>52798787.945127599</v>
+      </c>
+      <c r="H22">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>8069.0460038991796</v>
+      </c>
+      <c r="F23">
+        <v>3.2311448590590397E-5</v>
+      </c>
+      <c r="G23">
+        <v>5509768.8457557</v>
+      </c>
+      <c r="H23">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1302.2217190619201</v>
+      </c>
+      <c r="F24">
+        <v>5.2145780441314701E-6</v>
+      </c>
+      <c r="G24">
+        <v>1037870.71009235</v>
+      </c>
+      <c r="H24">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>234876.84717520399</v>
+      </c>
+      <c r="F25">
+        <v>9.4053388330594099E-4</v>
+      </c>
+      <c r="G25">
+        <v>79086236.494131193</v>
+      </c>
+      <c r="H25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>32937.282024539199</v>
+      </c>
+      <c r="F26">
+        <v>1.3189307562943599E-4</v>
+      </c>
+      <c r="G26">
+        <v>22938145.928070199</v>
+      </c>
+      <c r="H26">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>7370.8340479298604</v>
+      </c>
+      <c r="F27">
+        <v>2.95155493343789E-5</v>
+      </c>
+      <c r="G27">
+        <v>4154641.7839791402</v>
+      </c>
+      <c r="H27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>500915.24418412597</v>
+      </c>
+      <c r="F28">
+        <v>2.0058501529024901E-3</v>
+      </c>
+      <c r="G28">
+        <v>192630570.04657301</v>
+      </c>
+      <c r="H28">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>80014.751658567096</v>
+      </c>
+      <c r="F29">
+        <v>3.20408699300428E-4</v>
+      </c>
+      <c r="G29">
+        <v>46717951.4514542</v>
+      </c>
+      <c r="H29">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>40613.268313660803</v>
+      </c>
+      <c r="F30">
+        <v>1.6263056755142801E-4</v>
+      </c>
+      <c r="G30">
+        <v>23131745.435506798</v>
+      </c>
+      <c r="H30">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10843.5007966838</v>
+      </c>
+      <c r="F31">
+        <v>4.3421393107037499E-5</v>
+      </c>
+      <c r="G31">
+        <v>7519112.7628223896</v>
+      </c>
+      <c r="H31">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>1270798.94958869</v>
+      </c>
+      <c r="F32">
+        <v>5.0887496376609302E-3</v>
+      </c>
+      <c r="G32">
+        <v>536310217.81796902</v>
+      </c>
+      <c r="H32">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>82706.928406994004</v>
+      </c>
+      <c r="F33">
+        <v>3.31189172055391E-4</v>
+      </c>
+      <c r="G33">
+        <v>51928222.147484101</v>
+      </c>
+      <c r="H33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>94713.443163325996</v>
+      </c>
+      <c r="F34">
+        <v>3.7926770378193201E-4</v>
+      </c>
+      <c r="G34">
+        <v>62509537.073534101</v>
+      </c>
+      <c r="H34">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>42370</v>
       </c>
-      <c r="B3">
-        <v>6500506.4382037995</v>
-      </c>
-      <c r="C3">
-        <v>2.5725495549455E-2</v>
-      </c>
-      <c r="D3">
-        <v>3583698035.0376501</v>
-      </c>
-      <c r="E3">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>32400.742338042201</v>
+      </c>
+      <c r="F35">
+        <v>1.2822464845472299E-4</v>
+      </c>
+      <c r="G35">
+        <v>17638941.307708599</v>
+      </c>
+      <c r="H35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>5228.9387540421903</v>
+      </c>
+      <c r="F36">
+        <v>2.0693317039872701E-5</v>
+      </c>
+      <c r="G36">
+        <v>3992856.1193896602</v>
+      </c>
+      <c r="H36">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>96518.6340610279</v>
+      </c>
+      <c r="F37">
+        <v>3.8196865345502902E-4</v>
+      </c>
+      <c r="G37">
+        <v>40352763.088981599</v>
+      </c>
+      <c r="H37">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>78935.230729735893</v>
+      </c>
+      <c r="F38">
+        <v>3.1238303448156101E-4</v>
+      </c>
+      <c r="G38">
+        <v>62470774.859816998</v>
+      </c>
+      <c r="H38">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>7367.7308626263002</v>
+      </c>
+      <c r="F39">
+        <v>2.9157501698967301E-5</v>
+      </c>
+      <c r="G39">
+        <v>6616601.2173667802</v>
+      </c>
+      <c r="H39">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>347711.24273452797</v>
+      </c>
+      <c r="F40">
+        <v>1.3760534063764799E-3</v>
+      </c>
+      <c r="G40">
+        <v>139389852.583873</v>
+      </c>
+      <c r="H40">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>49956.439351425797</v>
+      </c>
+      <c r="F41">
+        <v>1.9770062077760701E-4</v>
+      </c>
+      <c r="G41">
+        <v>34353253.760133803</v>
+      </c>
+      <c r="H41">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>142387.78929111501</v>
+      </c>
+      <c r="F42">
+        <v>5.6349400997092903E-4</v>
+      </c>
+      <c r="G42">
+        <v>97676824.458015993</v>
+      </c>
+      <c r="H42">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>337091.40690764401</v>
+      </c>
+      <c r="F43">
+        <v>1.3340258286950199E-3</v>
+      </c>
+      <c r="G43">
+        <v>197271432.61596</v>
+      </c>
+      <c r="H43">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>353602.64873373799</v>
+      </c>
+      <c r="F44">
+        <v>1.3993684111770299E-3</v>
+      </c>
+      <c r="G44">
+        <v>282015951.26487499</v>
+      </c>
+      <c r="H44">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>75418.717155971506</v>
+      </c>
+      <c r="F45">
+        <v>2.9846657194876298E-4</v>
+      </c>
+      <c r="G45">
+        <v>52847307.0465471</v>
+      </c>
+      <c r="H45">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>36465.411389941903</v>
+      </c>
+      <c r="F46">
+        <v>1.44310414479061E-4</v>
+      </c>
+      <c r="G46">
+        <v>13627091.643500701</v>
+      </c>
+      <c r="H46">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>11944.8449986049</v>
+      </c>
+      <c r="F47">
+        <v>4.7271248751420302E-5</v>
+      </c>
+      <c r="G47">
+        <v>6959024.6806036504</v>
+      </c>
+      <c r="H47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>1418053.23423535</v>
+      </c>
+      <c r="F48">
+        <v>5.6118892447850196E-3</v>
+      </c>
+      <c r="G48">
+        <v>826970112.56958699</v>
+      </c>
+      <c r="H48">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>776843.00908189197</v>
+      </c>
+      <c r="F49">
+        <v>3.07432529492018E-3</v>
+      </c>
+      <c r="G49">
+        <v>554910940.72372997</v>
+      </c>
+      <c r="H49">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>125945.041480409</v>
+      </c>
+      <c r="F50">
+        <v>4.9842248982918599E-4</v>
+      </c>
+      <c r="G50">
+        <v>79204101.109650001</v>
+      </c>
+      <c r="H50">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>12167.9334852542</v>
+      </c>
+      <c r="F51">
+        <v>4.81541125598003E-5</v>
+      </c>
+      <c r="G51">
+        <v>5276599.6148926402</v>
+      </c>
+      <c r="H51">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>5118.6218877293204</v>
+      </c>
+      <c r="F52">
+        <v>2.0256742431364902E-5</v>
+      </c>
+      <c r="G52">
+        <v>2542859.59885399</v>
+      </c>
+      <c r="H52">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>155069.93740838399</v>
+      </c>
+      <c r="F53">
+        <v>6.1368310647438298E-4</v>
+      </c>
+      <c r="G53">
+        <v>81157541.406316206</v>
+      </c>
+      <c r="H53">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>19026.2551305419</v>
+      </c>
+      <c r="F54">
+        <v>7.5295647552469399E-5</v>
+      </c>
+      <c r="G54">
+        <v>12425463.308606001</v>
+      </c>
+      <c r="H54">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55">
+        <v>5423.9622540537002</v>
+      </c>
+      <c r="F55">
+        <v>2.1465114780445601E-5</v>
+      </c>
+      <c r="G55">
+        <v>2896775.6913736402</v>
+      </c>
+      <c r="H55">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>229049.60894487001</v>
+      </c>
+      <c r="F56">
+        <v>9.064547126491E-4</v>
+      </c>
+      <c r="G56">
+        <v>71329183.135742396</v>
+      </c>
+      <c r="H56">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>28471.709634416999</v>
+      </c>
+      <c r="F57">
+        <v>1.12675657881197E-4</v>
+      </c>
+      <c r="G57">
+        <v>18585816.736314502</v>
+      </c>
+      <c r="H57">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>11466.1493441452</v>
+      </c>
+      <c r="F58">
+        <v>4.5376829748006503E-5</v>
+      </c>
+      <c r="G58">
+        <v>9918219.1826856006</v>
+      </c>
+      <c r="H58">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>533097.719421788</v>
+      </c>
+      <c r="F59">
+        <v>2.1097130106372602E-3</v>
+      </c>
+      <c r="G59">
+        <v>212391548.40734401</v>
+      </c>
+      <c r="H59">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>62341.696697916697</v>
+      </c>
+      <c r="F60">
+        <v>2.4671478387011301E-4</v>
+      </c>
+      <c r="G60">
+        <v>34971544.553763002</v>
+      </c>
+      <c r="H60">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>49832.3555322795</v>
+      </c>
+      <c r="F61">
+        <v>1.972095640011E-4</v>
+      </c>
+      <c r="G61">
+        <v>28756050.151971299</v>
+      </c>
+      <c r="H61">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>9561.6545660942502</v>
+      </c>
+      <c r="F62">
+        <v>3.7839867450920002E-5</v>
+      </c>
+      <c r="G62">
+        <v>5397657.2511966201</v>
+      </c>
+      <c r="H62">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>1429.41280427069</v>
+      </c>
+      <c r="F63">
+        <v>5.6568442911596196E-6</v>
+      </c>
+      <c r="G63">
+        <v>1130665.52817811</v>
+      </c>
+      <c r="H63">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1307860.77613568</v>
+      </c>
+      <c r="F64">
+        <v>5.1758069768302502E-3</v>
+      </c>
+      <c r="G64">
+        <v>566632160.47596002</v>
+      </c>
+      <c r="H64">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>85623.5379471255</v>
+      </c>
+      <c r="F65">
+        <v>3.3885174414134E-4</v>
+      </c>
+      <c r="G65">
+        <v>60734430.142715096</v>
+      </c>
+      <c r="H65">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>89094.044903163798</v>
+      </c>
+      <c r="F66">
+        <v>3.5258613731526398E-4</v>
+      </c>
+      <c r="G66">
+        <v>53253690.801995397</v>
+      </c>
+      <c r="H66">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>30638.9391586647</v>
+      </c>
+      <c r="F67">
+        <v>1.2019252620008E-4</v>
+      </c>
+      <c r="G67">
+        <v>17480379.021564599</v>
+      </c>
+      <c r="H67">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>6979.0745878432899</v>
+      </c>
+      <c r="F68">
+        <v>2.7377991153928299E-5</v>
+      </c>
+      <c r="G68">
+        <v>5269201.3138216799</v>
+      </c>
+      <c r="H68">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>5228.9387540421903</v>
+      </c>
+      <c r="F69">
+        <v>2.05124385977997E-5</v>
+      </c>
+      <c r="G69">
+        <v>3992856.1193896602</v>
+      </c>
+      <c r="H69">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>107500.93212939501</v>
+      </c>
+      <c r="F70">
+        <v>4.2171200949825698E-4</v>
+      </c>
+      <c r="G70">
+        <v>46230265.767797202</v>
+      </c>
+      <c r="H70">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>79762.801657150703</v>
+      </c>
+      <c r="F71">
+        <v>3.1289897402527199E-4</v>
+      </c>
+      <c r="G71">
+        <v>61444930.831611097</v>
+      </c>
+      <c r="H71">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>4710.1713687024703</v>
+      </c>
+      <c r="F72">
+        <v>1.8477382415492E-5</v>
+      </c>
+      <c r="G72">
+        <v>2364506.0270886398</v>
+      </c>
+      <c r="H72">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>385155.13216889498</v>
+      </c>
+      <c r="F73">
+        <v>1.5109128966436099E-3</v>
+      </c>
+      <c r="G73">
+        <v>166153842.62628099</v>
+      </c>
+      <c r="H73">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>66306.175823388505</v>
+      </c>
+      <c r="F74">
+        <v>2.6011040178673998E-4</v>
+      </c>
+      <c r="G74">
+        <v>49917880.138504699</v>
+      </c>
+      <c r="H74">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>146001.86182137299</v>
+      </c>
+      <c r="F75">
+        <v>5.7274608991360104E-4</v>
+      </c>
+      <c r="G75">
+        <v>103435502.080166</v>
+      </c>
+      <c r="H75">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>356725.44062227698</v>
+      </c>
+      <c r="F76">
+        <v>1.3993869580860799E-3</v>
+      </c>
+      <c r="G76">
+        <v>203772408.03352001</v>
+      </c>
+      <c r="H76">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>384515.61107592803</v>
+      </c>
+      <c r="F77">
+        <v>1.5084041395575999E-3</v>
+      </c>
+      <c r="G77">
+        <v>300075787.07024801</v>
+      </c>
+      <c r="H77">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>82476.463606665202</v>
+      </c>
+      <c r="F78">
+        <v>3.2354431273220698E-4</v>
+      </c>
+      <c r="G78">
+        <v>58870930.376058497</v>
+      </c>
+      <c r="H78">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>29753.239136066899</v>
+      </c>
+      <c r="F79">
+        <v>1.1671804157056299E-4</v>
+      </c>
+      <c r="G79">
+        <v>10943203.376623699</v>
+      </c>
+      <c r="H79">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>13877.767319549001</v>
+      </c>
+      <c r="F80">
+        <v>5.4440654864573098E-5</v>
+      </c>
+      <c r="G80">
+        <v>9062868.7028685901</v>
+      </c>
+      <c r="H80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>1432274.02969717</v>
+      </c>
+      <c r="F81">
+        <v>5.6186225296050701E-3</v>
+      </c>
+      <c r="G81">
+        <v>841464567.998896</v>
+      </c>
+      <c r="H81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>814501.64909714297</v>
+      </c>
+      <c r="F82">
+        <v>3.1951827800614902E-3</v>
+      </c>
+      <c r="G82">
+        <v>596710041.87130404</v>
+      </c>
+      <c r="H82">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>134680.62117921401</v>
+      </c>
+      <c r="F83">
+        <v>5.2833435276259798E-4</v>
+      </c>
+      <c r="G83">
+        <v>95416082.961315304</v>
+      </c>
+      <c r="H83">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>7537.8336413506904</v>
+      </c>
+      <c r="F84">
+        <v>2.9569929387508699E-5</v>
+      </c>
+      <c r="G84">
+        <v>3314153.6672103498</v>
+      </c>
+      <c r="H84">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>5118.6218877293204</v>
+      </c>
+      <c r="F85">
+        <v>2.0079680049079802E-5</v>
+      </c>
+      <c r="G85">
+        <v>2542859.59885399</v>
+      </c>
+      <c r="H85">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>145135.711339142</v>
+      </c>
+      <c r="F86">
+        <v>5.6934829555820195E-4</v>
+      </c>
+      <c r="G86">
+        <v>78142659.292198002</v>
+      </c>
+      <c r="H86">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>16989.518444105801</v>
+      </c>
+      <c r="F87">
+        <v>6.6647645016209593E-5</v>
+      </c>
+      <c r="G87">
+        <v>12405095.941741601</v>
+      </c>
+      <c r="H87">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>5423.9622540537002</v>
+      </c>
+      <c r="F88">
+        <v>2.1277490123029699E-5</v>
+      </c>
+      <c r="G88">
+        <v>2896775.6913736402</v>
+      </c>
+      <c r="H88">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>256769.667378001</v>
+      </c>
+      <c r="F89">
+        <v>1.00727361394262E-3</v>
+      </c>
+      <c r="G89">
+        <v>86005603.902584895</v>
+      </c>
+      <c r="H89">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>10881.6299635616</v>
+      </c>
+      <c r="F90">
+        <v>4.268720231213E-5</v>
+      </c>
+      <c r="G90">
+        <v>4634324.7579564396</v>
+      </c>
+      <c r="H90">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>11466.1493441452</v>
+      </c>
+      <c r="F91">
+        <v>4.4980194918741703E-5</v>
+      </c>
+      <c r="G91">
+        <v>9918219.1826856006</v>
+      </c>
+      <c r="H91">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>538777.61518265598</v>
+      </c>
+      <c r="F92">
+        <v>2.1135536806125002E-3</v>
+      </c>
+      <c r="G92">
+        <v>196491505.46717101</v>
+      </c>
+      <c r="H92">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>64001.9423679584</v>
+      </c>
+      <c r="F93">
+        <v>2.5107119718084002E-4</v>
+      </c>
+      <c r="G93">
+        <v>38329213.937300898</v>
+      </c>
+      <c r="H93">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>33937.784455008201</v>
+      </c>
+      <c r="F94">
+        <v>1.3313346216583001E-4</v>
+      </c>
+      <c r="G94">
+        <v>18802901.663635299</v>
+      </c>
+      <c r="H94">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>6878.4504593758902</v>
+      </c>
+      <c r="F95">
+        <v>2.69832559402009E-5</v>
+      </c>
+      <c r="G95">
+        <v>2231476.4052689602</v>
+      </c>
+      <c r="H95">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>3201.66230036548</v>
+      </c>
+      <c r="F96">
+        <v>1.2559699861921E-5</v>
+      </c>
+      <c r="G96">
+        <v>1152598.4281315701</v>
+      </c>
+      <c r="H96">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>3629.4161858657499</v>
+      </c>
+      <c r="F97">
+        <v>1.42377220618391E-5</v>
+      </c>
+      <c r="G97">
+        <v>1438666.0016014201</v>
+      </c>
+      <c r="H97">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>1404246.82108461</v>
+      </c>
+      <c r="F98">
+        <v>5.5086754786306102E-3</v>
+      </c>
+      <c r="G98">
+        <v>609227826.85303295</v>
+      </c>
+      <c r="H98">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>89304.087906606001</v>
+      </c>
+      <c r="F99">
+        <v>3.50328184337725E-4</v>
+      </c>
+      <c r="G99">
+        <v>67107650.342693001</v>
+      </c>
+      <c r="H99">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>93362.2935499343</v>
+      </c>
+      <c r="F100">
+        <v>3.6624799101200699E-4</v>
+      </c>
+      <c r="G100">
+        <v>55725804.633150302</v>
+      </c>
+      <c r="H100">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>31440.4777125699</v>
+      </c>
+      <c r="F101">
+        <v>1.2217846308179201E-4</v>
+      </c>
+      <c r="G101">
+        <v>21190186.8987123</v>
+      </c>
+      <c r="H101">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>6979.0745878432899</v>
+      </c>
+      <c r="F102">
+        <v>2.7120854036355099E-5</v>
+      </c>
+      <c r="G102">
+        <v>5269201.3138216799</v>
+      </c>
+      <c r="H102">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>2098.0273167035598</v>
+      </c>
+      <c r="F103">
+        <v>8.1529853140868493E-6</v>
+      </c>
+      <c r="G103">
+        <v>1674225.79872944</v>
+      </c>
+      <c r="H103">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>107791.441081268</v>
+      </c>
+      <c r="F104">
+        <v>4.1888016858648299E-4</v>
+      </c>
+      <c r="G104">
+        <v>61880917.090992004</v>
+      </c>
+      <c r="H104">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105">
+        <v>64419.632500785199</v>
+      </c>
+      <c r="F105">
+        <v>2.5033626280090201E-4</v>
+      </c>
+      <c r="G105">
+        <v>45463674.789672002</v>
+      </c>
+      <c r="H105">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>11493.616329164401</v>
+      </c>
+      <c r="F106">
+        <v>4.4664473332339501E-5</v>
+      </c>
+      <c r="G106">
+        <v>7791261.9954581698</v>
+      </c>
+      <c r="H106">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>399755.80646760401</v>
+      </c>
+      <c r="F107">
+        <v>1.55346081216531E-3</v>
+      </c>
+      <c r="G107">
+        <v>186029342.505613</v>
+      </c>
+      <c r="H107">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>76772.385841277806</v>
+      </c>
+      <c r="F108">
+        <v>2.9833936350972E-4</v>
+      </c>
+      <c r="G108">
+        <v>54058583.193788201</v>
+      </c>
+      <c r="H108">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>110000.460424504</v>
+      </c>
+      <c r="F109">
+        <v>4.2746447162226599E-4</v>
+      </c>
+      <c r="G109">
+        <v>78902799.457148105</v>
+      </c>
+      <c r="H109">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>450380.34686976299</v>
+      </c>
+      <c r="F110">
+        <v>1.75018901067118E-3</v>
+      </c>
+      <c r="G110">
+        <v>275258109.17091298</v>
+      </c>
+      <c r="H110">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>397099.35659682198</v>
+      </c>
+      <c r="F111">
+        <v>1.5431377831886799E-3</v>
+      </c>
+      <c r="G111">
+        <v>311009113.03807497</v>
+      </c>
+      <c r="H111">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112">
+        <v>61874.966454798399</v>
+      </c>
+      <c r="F112">
+        <v>2.4044762849332601E-4</v>
+      </c>
+      <c r="G112">
+        <v>43938018.577139802</v>
+      </c>
+      <c r="H112">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>37684.082769397799</v>
+      </c>
+      <c r="F113">
+        <v>1.4644126458585301E-4</v>
+      </c>
+      <c r="G113">
+        <v>14321742.7644227</v>
+      </c>
+      <c r="H113">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>6322.25041498466</v>
+      </c>
+      <c r="F114">
+        <v>2.4568419283661998E-5</v>
+      </c>
+      <c r="G114">
+        <v>5285110.2505863998</v>
+      </c>
+      <c r="H114">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>9683.6624301227403</v>
+      </c>
+      <c r="F115">
+        <v>3.7630948344091797E-5</v>
+      </c>
+      <c r="G115">
+        <v>7911552.2054102803</v>
+      </c>
+      <c r="H115">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>1432541.4073674299</v>
+      </c>
+      <c r="F116">
+        <v>5.5668908422216801E-3</v>
+      </c>
+      <c r="G116">
+        <v>851557221.23963702</v>
+      </c>
+      <c r="H116">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117">
+        <v>763309.76032677502</v>
+      </c>
+      <c r="F117">
+        <v>2.9662403422951499E-3</v>
+      </c>
+      <c r="G117">
+        <v>575468557.83561897</v>
+      </c>
+      <c r="H117">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>162698.701453049</v>
+      </c>
+      <c r="F118">
+        <v>6.3225112133043497E-4</v>
+      </c>
+      <c r="G118">
+        <v>110291742.49479499</v>
+      </c>
+      <c r="H118">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>2765.8655054054798</v>
+      </c>
+      <c r="F119">
+        <v>1.0748220800928899E-5</v>
+      </c>
+      <c r="G119">
+        <v>1250171.2084432801</v>
+      </c>
+      <c r="H119">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <v>1787.79476692603</v>
+      </c>
+      <c r="F120">
+        <v>6.9474140604856103E-6</v>
+      </c>
+      <c r="G120">
+        <v>1310453.56415678</v>
+      </c>
+      <c r="H120">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>163605.51883781599</v>
+      </c>
+      <c r="F121">
+        <v>6.3577503580080599E-4</v>
+      </c>
+      <c r="G121">
+        <v>66105484.962941997</v>
+      </c>
+      <c r="H121">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122">
+        <v>12917.2628668121</v>
+      </c>
+      <c r="F122">
+        <v>5.0196798493924598E-5</v>
+      </c>
+      <c r="G122">
+        <v>8934549.8152246699</v>
+      </c>
+      <c r="H122">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>9414.2002303282206</v>
+      </c>
+      <c r="F123">
+        <v>3.6583811664728598E-5</v>
+      </c>
+      <c r="G123">
+        <v>4225524.9374730596</v>
+      </c>
+      <c r="H123">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>261261.297808553</v>
+      </c>
+      <c r="F124">
+        <v>1.0152677742629099E-3</v>
+      </c>
+      <c r="G124">
+        <v>97410845.856827796</v>
+      </c>
+      <c r="H124">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>10881.6299635616</v>
+      </c>
+      <c r="F125">
+        <v>4.2286279392033599E-5</v>
+      </c>
+      <c r="G125">
+        <v>4634324.7579564396</v>
+      </c>
+      <c r="H125">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>14489.7979669753</v>
+      </c>
+      <c r="F126">
+        <v>5.6307708240162597E-5</v>
+      </c>
+      <c r="G126">
+        <v>12276665.108493101</v>
+      </c>
+      <c r="H126">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>459359.020357917</v>
+      </c>
+      <c r="F127">
+        <v>1.7850803547953E-3</v>
+      </c>
+      <c r="G127">
+        <v>161824661.41856799</v>
+      </c>
+      <c r="H127">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>55504.308621006603</v>
+      </c>
+      <c r="F128">
+        <v>2.15691096799742E-4</v>
+      </c>
+      <c r="G128">
+        <v>35992942.3828132</v>
+      </c>
+      <c r="H128">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>18411.6027785562</v>
+      </c>
+      <c r="F129">
+        <v>7.1547937373009194E-5</v>
+      </c>
+      <c r="G129">
+        <v>10135156.1507417</v>
+      </c>
+      <c r="H129">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>5864.5992988449298</v>
+      </c>
+      <c r="F130">
+        <v>2.2789975886306601E-5</v>
+      </c>
+      <c r="G130">
+        <v>1365003.5883310901</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>3201.66230036548</v>
+      </c>
+      <c r="F131">
+        <v>1.2441737773251999E-5</v>
+      </c>
+      <c r="G131">
+        <v>1152598.4281315701</v>
+      </c>
+      <c r="H131">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <v>3629.4161858657499</v>
+      </c>
+      <c r="F132">
+        <v>1.41039998032845E-5</v>
+      </c>
+      <c r="G132">
+        <v>1438666.0016014201</v>
+      </c>
+      <c r="H132">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>1468283.5909378701</v>
+      </c>
+      <c r="F133">
+        <v>5.7057858391662501E-3</v>
+      </c>
+      <c r="G133">
+        <v>670688461.82592905</v>
+      </c>
+      <c r="H133">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>93439.8651082367</v>
+      </c>
+      <c r="F134">
+        <v>3.6310959438539498E-4</v>
+      </c>
+      <c r="G134">
+        <v>68077571.304705605</v>
+      </c>
+      <c r="H134">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>77113.288679750694</v>
+      </c>
+      <c r="F135">
+        <v>2.9966412025310098E-4</v>
+      </c>
+      <c r="G135">
+        <v>43023244.082462803</v>
+      </c>
+      <c r="H135">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <v>24369.163353101401</v>
+      </c>
+      <c r="F136">
+        <v>9.3876492496899105E-5</v>
+      </c>
+      <c r="G136">
+        <v>19588603.9282897</v>
+      </c>
+      <c r="H136">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>6979.0745878432899</v>
+      </c>
+      <c r="F137">
+        <v>2.6885249759614301E-5</v>
+      </c>
+      <c r="G137">
+        <v>5269201.3138216799</v>
+      </c>
+      <c r="H137">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <v>110077.717130848</v>
+      </c>
+      <c r="F138">
+        <v>4.2404861572708602E-4</v>
+      </c>
+      <c r="G138">
+        <v>62977654.963770904</v>
+      </c>
+      <c r="H138">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>50001.511951011496</v>
+      </c>
+      <c r="F139">
+        <v>1.9261911020451001E-4</v>
+      </c>
+      <c r="G139">
+        <v>38933445.252083004</v>
+      </c>
+      <c r="H139">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>11493.616329164401</v>
+      </c>
+      <c r="F140">
+        <v>4.4276464130218898E-5</v>
+      </c>
+      <c r="G140">
+        <v>7791261.9954581698</v>
+      </c>
+      <c r="H140">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <v>440917.221348505</v>
+      </c>
+      <c r="F141">
+        <v>1.69853029510793E-3</v>
+      </c>
+      <c r="G141">
+        <v>219188666.02546301</v>
+      </c>
+      <c r="H141">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>75888.905808769894</v>
+      </c>
+      <c r="F142">
+        <v>2.9234423002249703E-4</v>
+      </c>
+      <c r="G142">
+        <v>49876045.678094603</v>
+      </c>
+      <c r="H142">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>101335.971436616</v>
+      </c>
+      <c r="F143">
+        <v>3.9037308849689401E-4</v>
+      </c>
+      <c r="G143">
+        <v>71271629.454974696</v>
+      </c>
+      <c r="H143">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>462878.85004886199</v>
+      </c>
+      <c r="F144">
+        <v>1.78313232440354E-3</v>
+      </c>
+      <c r="G144">
+        <v>287653759.32778299</v>
+      </c>
+      <c r="H144">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>349825.97429527598</v>
+      </c>
+      <c r="F145">
+        <v>1.3476226071163599E-3</v>
+      </c>
+      <c r="G145">
+        <v>267888516.52023</v>
+      </c>
+      <c r="H145">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>32121.294455036201</v>
+      </c>
+      <c r="F146">
+        <v>1.23739761361776E-4</v>
+      </c>
+      <c r="G146">
+        <v>22974607.836651102</v>
+      </c>
+      <c r="H146">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>28031.431881353401</v>
+      </c>
+      <c r="F147">
+        <v>1.07984523988687E-4</v>
+      </c>
+      <c r="G147">
+        <v>12191588.8793549</v>
+      </c>
+      <c r="H147">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <v>6322.25041498466</v>
+      </c>
+      <c r="F148">
+        <v>2.43549885174983E-5</v>
+      </c>
+      <c r="G148">
+        <v>5285110.2505863998</v>
+      </c>
+      <c r="H148">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>9683.6624301227403</v>
+      </c>
+      <c r="F149">
+        <v>3.7304040778577998E-5</v>
+      </c>
+      <c r="G149">
+        <v>7911552.2054102803</v>
+      </c>
+      <c r="H149">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>1488714.2065836701</v>
+      </c>
+      <c r="F150">
+        <v>5.7349226979757197E-3</v>
+      </c>
+      <c r="G150">
+        <v>870886325.26338696</v>
+      </c>
+      <c r="H150">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151">
+        <v>688717.00531449995</v>
+      </c>
+      <c r="F151">
+        <v>2.6531209071511E-3</v>
+      </c>
+      <c r="G151">
+        <v>504163903.56965297</v>
+      </c>
+      <c r="H151">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152">
+        <v>150989.444360111</v>
+      </c>
+      <c r="F152">
+        <v>5.8165145988809601E-4</v>
+      </c>
+      <c r="G152">
+        <v>102365804.63460501</v>
+      </c>
+      <c r="H152">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153">
+        <v>1787.79476692603</v>
+      </c>
+      <c r="F153">
+        <v>6.8870604867100403E-6</v>
+      </c>
+      <c r="G153">
+        <v>1310453.56415678</v>
+      </c>
+      <c r="H153">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>162096.82818816401</v>
+      </c>
+      <c r="F154">
+        <v>6.24440053796133E-4</v>
+      </c>
+      <c r="G154">
+        <v>67588712.157484502</v>
+      </c>
+      <c r="H154">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155">
+        <v>12917.2628668121</v>
+      </c>
+      <c r="F155">
+        <v>4.9760728877974799E-5</v>
+      </c>
+      <c r="G155">
+        <v>8934549.8152246699</v>
+      </c>
+      <c r="H155">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156">
+        <v>8111.9785112663003</v>
+      </c>
+      <c r="F156">
+        <v>3.1249496702601499E-5</v>
+      </c>
+      <c r="G156">
+        <v>3187654.2273807102</v>
+      </c>
+      <c r="H156">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>244039.53863237399</v>
+      </c>
+      <c r="F157">
+        <v>9.4010514786315802E-4</v>
+      </c>
+      <c r="G157">
+        <v>104129445.85284799</v>
+      </c>
+      <c r="H157">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>24157.393196270099</v>
+      </c>
+      <c r="F158">
+        <v>9.3060697582204003E-5</v>
+      </c>
+      <c r="G158">
+        <v>15501186.1994907</v>
+      </c>
+      <c r="H158">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159">
+        <v>21594.228726552301</v>
+      </c>
+      <c r="F159">
+        <v>8.3186706972708605E-5</v>
+      </c>
+      <c r="G159">
+        <v>18379371.130969699</v>
+      </c>
+      <c r="H159">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>453753.248112261</v>
+      </c>
+      <c r="F160">
+        <v>1.7479780809312501E-3</v>
+      </c>
+      <c r="G160">
+        <v>157864438.31107599</v>
+      </c>
+      <c r="H160">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161">
+        <v>32071.7231458592</v>
+      </c>
+      <c r="F161">
+        <v>1.23548799506968E-4</v>
+      </c>
+      <c r="G161">
+        <v>24580219.0282191</v>
+      </c>
+      <c r="H161">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>23267.928136712901</v>
+      </c>
+      <c r="F162">
+        <v>8.9634241828270505E-5</v>
+      </c>
+      <c r="G162">
+        <v>14360159.212338001</v>
+      </c>
+      <c r="H162">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>5745.1693400005497</v>
+      </c>
+      <c r="F163">
+        <v>2.2131918877360101E-5</v>
+      </c>
+      <c r="G163">
+        <v>1550644.0453013501</v>
+      </c>
+      <c r="H163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164">
+        <v>3201.66230036548</v>
+      </c>
+      <c r="F164">
+        <v>1.23336539118243E-5</v>
+      </c>
+      <c r="G164">
+        <v>1152598.4281315701</v>
+      </c>
+      <c r="H164">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>7706.4398516411002</v>
+      </c>
+      <c r="F165">
+        <v>2.9687254027878599E-5</v>
+      </c>
+      <c r="G165">
+        <v>2722928.4563206499</v>
+      </c>
+      <c r="H165">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>1448000.3405955699</v>
+      </c>
+      <c r="F166">
+        <v>5.57808206789045E-3</v>
+      </c>
+      <c r="G166">
+        <v>650593852.78800797</v>
+      </c>
+      <c r="H166">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>114029.59341222</v>
+      </c>
+      <c r="F167">
+        <v>4.3927229323711698E-4</v>
+      </c>
+      <c r="G167">
+        <v>90025121.255641207</v>
+      </c>
+      <c r="H167">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <v>80537.998729615298</v>
+      </c>
+      <c r="F168">
+        <v>3.10253771288943E-4</v>
+      </c>
+      <c r="G168">
+        <v>41124320.3867369</v>
+      </c>
+      <c r="H168">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>34085.085912147901</v>
+      </c>
+      <c r="F169">
+        <v>1.3024053891644801E-4</v>
+      </c>
+      <c r="G169">
+        <v>21413917.4097877</v>
+      </c>
+      <c r="H169">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170">
+        <v>6979.0745878432899</v>
+      </c>
+      <c r="F170">
+        <v>2.6667335907604301E-5</v>
+      </c>
+      <c r="G170">
+        <v>5269201.3138216799</v>
+      </c>
+      <c r="H170">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>115265.572259975</v>
+      </c>
+      <c r="F171">
+        <v>4.40434572714443E-4</v>
+      </c>
+      <c r="G171">
+        <v>68569463.998523295</v>
+      </c>
+      <c r="H171">
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B4">
-        <v>6777752.01694794</v>
-      </c>
-      <c r="C4">
-        <v>2.6588229202585901E-2</v>
-      </c>
-      <c r="D4">
-        <v>3762972590.0836501</v>
-      </c>
-      <c r="E4">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43101</v>
-      </c>
-      <c r="B5">
-        <v>6794276.1791596496</v>
-      </c>
-      <c r="C5">
-        <v>2.6402722913814899E-2</v>
-      </c>
-      <c r="D5">
-        <v>3847147686.0153399</v>
-      </c>
-      <c r="E5">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B6">
-        <v>6681366.4302423904</v>
-      </c>
-      <c r="C6">
-        <v>2.5738398830908601E-2</v>
-      </c>
-      <c r="D6">
-        <v>3759223331.95894</v>
-      </c>
-      <c r="E6">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>44197</v>
       </c>
-      <c r="B7">
-        <v>6264648.4613333596</v>
-      </c>
-      <c r="C7">
-        <v>2.3937483796552899E-2</v>
-      </c>
-      <c r="D7">
-        <v>3614208112.2448401</v>
-      </c>
-      <c r="E7">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>32663.535918745201</v>
+      </c>
+      <c r="F172">
+        <v>1.2480873693376801E-4</v>
+      </c>
+      <c r="G172">
+        <v>23446520.361249398</v>
+      </c>
+      <c r="H172">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173">
+        <v>6783.4449604619203</v>
+      </c>
+      <c r="F173">
+        <v>2.5919826918956199E-5</v>
+      </c>
+      <c r="G173">
+        <v>5426755.9683695296</v>
+      </c>
+      <c r="H173">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>408765.29689906002</v>
+      </c>
+      <c r="F174">
+        <v>1.56190929650853E-3</v>
+      </c>
+      <c r="G174">
+        <v>215986137.55406499</v>
+      </c>
+      <c r="H174">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>75949.864377888196</v>
+      </c>
+      <c r="F175">
+        <v>2.9020760847435397E-4</v>
+      </c>
+      <c r="G175">
+        <v>50928467.451094396</v>
+      </c>
+      <c r="H175">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176">
+        <v>64994.857710935903</v>
+      </c>
+      <c r="F176">
+        <v>2.4834806979475002E-4</v>
+      </c>
+      <c r="G176">
+        <v>41785727.472648598</v>
+      </c>
+      <c r="H176">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>422970.169722402</v>
+      </c>
+      <c r="F177">
+        <v>1.6161867097009099E-3</v>
+      </c>
+      <c r="G177">
+        <v>245341620.071208</v>
+      </c>
+      <c r="H177">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178">
+        <v>327018.24422337901</v>
+      </c>
+      <c r="F178">
+        <v>1.24955038907454E-3</v>
+      </c>
+      <c r="G178">
+        <v>241111109.88084501</v>
+      </c>
+      <c r="H178">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>27666.550221158399</v>
+      </c>
+      <c r="F179">
+        <v>1.05715045578877E-4</v>
+      </c>
+      <c r="G179">
+        <v>21393173.633624502</v>
+      </c>
+      <c r="H179">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>39426.871252403798</v>
+      </c>
+      <c r="F180">
+        <v>1.50651724127601E-4</v>
+      </c>
+      <c r="G180">
+        <v>18952050.354309902</v>
+      </c>
+      <c r="H180">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181">
+        <v>3432.42106096932</v>
+      </c>
+      <c r="F181">
+        <v>1.31154244387422E-5</v>
+      </c>
+      <c r="G181">
+        <v>3123503.1654820801</v>
+      </c>
+      <c r="H181">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182">
+        <v>9683.6624301227403</v>
+      </c>
+      <c r="F182">
+        <v>3.7001679175309201E-5</v>
+      </c>
+      <c r="G182">
+        <v>7911552.2054102803</v>
+      </c>
+      <c r="H182">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>1365241.25117251</v>
+      </c>
+      <c r="F183">
+        <v>5.2166439234440304E-3</v>
+      </c>
+      <c r="G183">
+        <v>835475985.678298</v>
+      </c>
+      <c r="H183">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184">
+        <v>608336.81654028106</v>
+      </c>
+      <c r="F184">
+        <v>2.3244804203554899E-3</v>
+      </c>
+      <c r="G184">
+        <v>462270873.50089097</v>
+      </c>
+      <c r="H184">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>141580.50139000799</v>
+      </c>
+      <c r="F185">
+        <v>5.4098501757109498E-4</v>
+      </c>
+      <c r="G185">
+        <v>92721066.904969499</v>
+      </c>
+      <c r="H185">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>5013.6091618997298</v>
+      </c>
+      <c r="F186">
+        <v>1.9157210307325099E-5</v>
+      </c>
+      <c r="G186">
+        <v>4537316.2915192498</v>
+      </c>
+      <c r="H186">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>177092.05509423799</v>
+      </c>
+      <c r="F187">
+        <v>6.7667614958467101E-4</v>
+      </c>
+      <c r="G187">
+        <v>83569707.009039804</v>
+      </c>
+      <c r="H187">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188">
+        <v>15701.333049568801</v>
+      </c>
+      <c r="F188">
+        <v>5.9995450307891301E-5</v>
+      </c>
+      <c r="G188">
+        <v>11259248.4178265</v>
+      </c>
+      <c r="H188">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189">
+        <v>8111.9785112663003</v>
+      </c>
+      <c r="F189">
+        <v>3.09962091839537E-5</v>
+      </c>
+      <c r="G189">
+        <v>3187654.2273807102</v>
+      </c>
+      <c r="H189">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>222005.423798056</v>
+      </c>
+      <c r="F190">
+        <v>8.4829200995290401E-4</v>
+      </c>
+      <c r="G190">
+        <v>96918177.143083498</v>
+      </c>
+      <c r="H190">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191">
+        <v>26760.045544375302</v>
+      </c>
+      <c r="F191">
+        <v>1.0225125329333601E-4</v>
+      </c>
+      <c r="G191">
+        <v>17713440.695380099</v>
+      </c>
+      <c r="H191">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192">
+        <v>21594.228726552301</v>
+      </c>
+      <c r="F192">
+        <v>8.2512451166475394E-5</v>
+      </c>
+      <c r="G192">
+        <v>18379371.130969699</v>
+      </c>
+      <c r="H192">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <v>428451.89549231</v>
+      </c>
+      <c r="F193">
+        <v>1.6371326131469301E-3</v>
+      </c>
+      <c r="G193">
+        <v>179054841.83624101</v>
+      </c>
+      <c r="H193">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194">
+        <v>26256.839911157302</v>
+      </c>
+      <c r="F194">
+        <v>1.00328483521682E-4</v>
+      </c>
+      <c r="G194">
+        <v>18729413.058917802</v>
+      </c>
+      <c r="H194">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195">
+        <v>23267.928136712901</v>
+      </c>
+      <c r="F195">
+        <v>8.8907726617013893E-5</v>
+      </c>
+      <c r="G195">
+        <v>14360159.212338001</v>
+      </c>
+      <c r="H195">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>20030.6523672773</v>
+      </c>
+      <c r="F196">
+        <v>7.6537960499387995E-5</v>
+      </c>
+      <c r="G196">
+        <v>12807798.795440899</v>
+      </c>
+      <c r="H196">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197">
+        <v>3201.66230036548</v>
+      </c>
+      <c r="F197">
+        <v>1.22336855627365E-5</v>
+      </c>
+      <c r="G197">
+        <v>1152598.4281315701</v>
+      </c>
+      <c r="H197">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198">
+        <v>7706.4398516411002</v>
+      </c>
+      <c r="F198">
+        <v>2.9446629003426299E-5</v>
+      </c>
+      <c r="G198">
+        <v>2722928.4563206499</v>
+      </c>
+      <c r="H198">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>1353248.2424735399</v>
+      </c>
+      <c r="F199">
+        <v>5.1708181355845104E-3</v>
+      </c>
+      <c r="G199">
+        <v>619364467.29481399</v>
+      </c>
+      <c r="H199">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200">
+        <v>147914.29214191</v>
+      </c>
+      <c r="F200">
+        <v>5.6518669695186305E-4</v>
+      </c>
+      <c r="G200">
+        <v>122546659.53679501</v>
+      </c>
+      <c r="H200">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>87448.614132193397</v>
+      </c>
+      <c r="F201">
+        <v>3.3414481223338399E-4</v>
+      </c>
+      <c r="G201">
+        <v>46777203.786045797</v>
+      </c>
+      <c r="H201">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>44562</v>
       </c>
-      <c r="B8">
-        <v>5705146.1147783902</v>
-      </c>
-      <c r="C8">
-        <v>2.1635674446019701E-2</v>
-      </c>
-      <c r="D8">
-        <v>3348841287.03684</v>
-      </c>
-      <c r="E8">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>29869.2843650553</v>
+      </c>
+      <c r="F202">
+        <v>1.1327354277288799E-4</v>
+      </c>
+      <c r="G202">
+        <v>19044357.2828454</v>
+      </c>
+      <c r="H202">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203">
+        <v>9448.7429124378104</v>
+      </c>
+      <c r="F203">
+        <v>3.5832548626246997E-5</v>
+      </c>
+      <c r="G203">
+        <v>7652431.2470553899</v>
+      </c>
+      <c r="H203">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>118082.49352457801</v>
+      </c>
+      <c r="F204">
+        <v>4.47805250956527E-4</v>
+      </c>
+      <c r="G204">
+        <v>67394305.366562098</v>
+      </c>
+      <c r="H204">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205">
+        <v>38879.612536033397</v>
+      </c>
+      <c r="F205">
+        <v>1.47443487422352E-4</v>
+      </c>
+      <c r="G205">
+        <v>29943110.713272899</v>
+      </c>
+      <c r="H205">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206">
+        <v>6783.4449604619203</v>
+      </c>
+      <c r="F206">
+        <v>2.5724916388534601E-5</v>
+      </c>
+      <c r="G206">
+        <v>5426755.9683695296</v>
+      </c>
+      <c r="H206">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>346444.90921668499</v>
+      </c>
+      <c r="F207">
+        <v>1.31382599472375E-3</v>
+      </c>
+      <c r="G207">
+        <v>194984462.70253301</v>
+      </c>
+      <c r="H207">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208">
+        <v>75715.534965952902</v>
+      </c>
+      <c r="F208">
+        <v>2.8713667136169601E-4</v>
+      </c>
+      <c r="G208">
+        <v>51645954.9340593</v>
+      </c>
+      <c r="H208">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209">
+        <v>25581.726660775301</v>
+      </c>
+      <c r="F209">
+        <v>9.7013800990283203E-5</v>
+      </c>
+      <c r="G209">
+        <v>25127559.570956599</v>
+      </c>
+      <c r="H209">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>412480.33792388899</v>
+      </c>
+      <c r="F210">
+        <v>1.5642527162605599E-3</v>
+      </c>
+      <c r="G210">
+        <v>235046735.50247899</v>
+      </c>
+      <c r="H210">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211">
+        <v>320198.98678686097</v>
+      </c>
+      <c r="F211">
+        <v>1.21429335843312E-3</v>
+      </c>
+      <c r="G211">
+        <v>235589731.356837</v>
+      </c>
+      <c r="H211">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212">
+        <v>22116.8330004208</v>
+      </c>
+      <c r="F212">
+        <v>8.3873855103302201E-5</v>
+      </c>
+      <c r="G212">
+        <v>16696473.4917541</v>
+      </c>
+      <c r="H212">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>29118.950370855899</v>
+      </c>
+      <c r="F213">
+        <v>1.10428044743972E-4</v>
+      </c>
+      <c r="G213">
+        <v>16617450.840409501</v>
+      </c>
+      <c r="H213">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214">
+        <v>3432.42106096932</v>
+      </c>
+      <c r="F214">
+        <v>1.30167997703733E-5</v>
+      </c>
+      <c r="G214">
+        <v>3123503.1654820801</v>
+      </c>
+      <c r="H214">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E215">
+        <v>9683.6624301227403</v>
+      </c>
+      <c r="F215">
+        <v>3.67234359240291E-5</v>
+      </c>
+      <c r="G215">
+        <v>7911552.2054102803</v>
+      </c>
+      <c r="H215">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216">
+        <v>1152303.1858236</v>
+      </c>
+      <c r="F216">
+        <v>4.3698892350909199E-3</v>
+      </c>
+      <c r="G216">
+        <v>722015667.55086303</v>
+      </c>
+      <c r="H216">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217">
+        <v>562978.90688675805</v>
+      </c>
+      <c r="F217">
+        <v>2.1349897275770402E-3</v>
+      </c>
+      <c r="G217">
+        <v>435460073.72871798</v>
+      </c>
+      <c r="H217">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218">
+        <v>120273.10022911501</v>
+      </c>
+      <c r="F218">
+        <v>4.5611270751331199E-4</v>
+      </c>
+      <c r="G218">
+        <v>77917903.8724408</v>
+      </c>
+      <c r="H218">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B219" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>5013.6091618997298</v>
+      </c>
+      <c r="F219">
+        <v>1.9013152940195599E-5</v>
+      </c>
+      <c r="G219">
+        <v>4537316.2915192498</v>
+      </c>
+      <c r="H219">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220">
+        <v>9916.2736902674005</v>
+      </c>
+      <c r="F220">
+        <v>3.7605569596983E-5</v>
+      </c>
+      <c r="G220">
+        <v>2379905.6856641802</v>
+      </c>
+      <c r="H220">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B221" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221">
+        <v>145651.91779019</v>
+      </c>
+      <c r="F221">
+        <v>5.5235701458794095E-4</v>
+      </c>
+      <c r="G221">
+        <v>65378354.040654004</v>
+      </c>
+      <c r="H221">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222">
+        <v>4744.12392292603</v>
+      </c>
+      <c r="F222">
+        <v>1.7991181761694201E-5</v>
+      </c>
+      <c r="G222">
+        <v>4343553.9549762504</v>
+      </c>
+      <c r="H222">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E223">
+        <v>3990.23797627452</v>
+      </c>
+      <c r="F223">
+        <v>1.513221363309E-5</v>
+      </c>
+      <c r="G223">
+        <v>1328749.2460994199</v>
+      </c>
+      <c r="H223">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224">
+        <v>244147.72859855299</v>
+      </c>
+      <c r="F224">
+        <v>9.2588352102155604E-4</v>
+      </c>
+      <c r="G224">
+        <v>114927408.76386701</v>
+      </c>
+      <c r="H224">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225">
+        <v>34018.007432426799</v>
+      </c>
+      <c r="F225">
+        <v>1.29006780773547E-4</v>
+      </c>
+      <c r="G225">
+        <v>17281395.939342301</v>
+      </c>
+      <c r="H225">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>10128.079382407101</v>
+      </c>
+      <c r="F226">
+        <v>3.8408802136300201E-5</v>
+      </c>
+      <c r="G226">
+        <v>8461151.9482841399</v>
+      </c>
+      <c r="H226">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>405954.374788891</v>
+      </c>
+      <c r="F227">
+        <v>1.53950425040272E-3</v>
+      </c>
+      <c r="G227">
+        <v>179562204.00927499</v>
+      </c>
+      <c r="H227">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228">
+        <v>53700.595371340802</v>
+      </c>
+      <c r="F228">
+        <v>2.0364922749342999E-4</v>
+      </c>
+      <c r="G228">
+        <v>28440291.590886101</v>
+      </c>
+      <c r="H228">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229">
+        <v>4856.3253581567096</v>
+      </c>
+      <c r="F229">
+        <v>1.84166842249421E-5</v>
+      </c>
+      <c r="G229">
+        <v>4225003.0615963396</v>
+      </c>
+      <c r="H229">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>20030.6523672773</v>
+      </c>
+      <c r="F230">
+        <v>7.5962414430929802E-5</v>
+      </c>
+      <c r="G230">
+        <v>12807798.795440899</v>
+      </c>
+      <c r="H230">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231">
+        <v>3201.66230036548</v>
+      </c>
+      <c r="F231">
+        <v>1.21416913472851E-5</v>
+      </c>
+      <c r="G231">
+        <v>1152598.4281315701</v>
+      </c>
+      <c r="H231">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>6277.0270473704104</v>
+      </c>
+      <c r="F232">
+        <v>2.3804423401878399E-5</v>
+      </c>
+      <c r="G232">
+        <v>1592262.9281425399</v>
+      </c>
+      <c r="H232">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>1252298.19127872</v>
+      </c>
+      <c r="F233">
+        <v>4.7491011502162504E-3</v>
+      </c>
+      <c r="G233">
+        <v>589880861.09282804</v>
+      </c>
+      <c r="H233">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234">
+        <v>146133.288661283</v>
+      </c>
+      <c r="F234">
+        <v>5.5418252146282698E-4</v>
+      </c>
+      <c r="G234">
+        <v>124229958.91466101</v>
+      </c>
+      <c r="H234">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235">
+        <v>71691.885995458098</v>
+      </c>
+      <c r="F235">
+        <v>2.7187775292923303E-4</v>
+      </c>
+      <c r="G235">
+        <v>36714442.845421501</v>
+      </c>
+      <c r="H235">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>44927</v>
       </c>
-      <c r="B9">
-        <v>5561350.4390954599</v>
-      </c>
-      <c r="C9">
-        <v>2.0898049987492801E-2</v>
-      </c>
-      <c r="D9">
-        <v>3236272604.5528202</v>
-      </c>
-      <c r="E9">
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>29869.2843650553</v>
+      </c>
+      <c r="F236">
+        <v>1.1224068768683599E-4</v>
+      </c>
+      <c r="G236">
+        <v>19044357.2828454</v>
+      </c>
+      <c r="H236">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237">
+        <v>2469.6683245945201</v>
+      </c>
+      <c r="F237">
+        <v>9.28034524440044E-6</v>
+      </c>
+      <c r="G237">
+        <v>2383229.93323371</v>
+      </c>
+      <c r="H237">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>111003.744348382</v>
+      </c>
+      <c r="F238">
+        <v>4.1712203242647499E-4</v>
+      </c>
+      <c r="G238">
+        <v>72001857.521875396</v>
+      </c>
+      <c r="H238">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239">
+        <v>53625.218411715097</v>
+      </c>
+      <c r="F239">
+        <v>2.0150905921701199E-4</v>
+      </c>
+      <c r="G239">
+        <v>44103441.888327703</v>
+      </c>
+      <c r="H239">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240">
+        <v>6783.4449604619203</v>
+      </c>
+      <c r="F240">
+        <v>2.54903504865621E-5</v>
+      </c>
+      <c r="G240">
+        <v>5426755.9683695296</v>
+      </c>
+      <c r="H240">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>353086.098704723</v>
+      </c>
+      <c r="F241">
+        <v>1.32680200994855E-3</v>
+      </c>
+      <c r="G241">
+        <v>184910098.23056701</v>
+      </c>
+      <c r="H241">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242">
+        <v>67484.720648529299</v>
+      </c>
+      <c r="F242">
+        <v>2.5358931808913899E-4</v>
+      </c>
+      <c r="G242">
+        <v>48327949.912678704</v>
+      </c>
+      <c r="H242">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>11107.037364441099</v>
+      </c>
+      <c r="F243">
+        <v>4.1737240729032903E-5</v>
+      </c>
+      <c r="G243">
+        <v>10630533.8101735</v>
+      </c>
+      <c r="H243">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>479271.42129166803</v>
+      </c>
+      <c r="F244">
+        <v>1.80097230509341E-3</v>
+      </c>
+      <c r="G244">
+        <v>278364422.247141</v>
+      </c>
+      <c r="H244">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245">
+        <v>257605.71551410199</v>
+      </c>
+      <c r="F245">
+        <v>9.6801256796059205E-4</v>
+      </c>
+      <c r="G245">
+        <v>192274469.50515899</v>
+      </c>
+      <c r="H245">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246">
+        <v>9446.2526263073996</v>
+      </c>
+      <c r="F246">
+        <v>3.54964611097525E-5</v>
+      </c>
+      <c r="G246">
+        <v>6893236.1467918605</v>
+      </c>
+      <c r="H246">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247">
+        <v>45787.182727143598</v>
+      </c>
+      <c r="F247">
+        <v>1.7205584217310101E-4</v>
+      </c>
+      <c r="G247">
+        <v>26394691.4113071</v>
+      </c>
+      <c r="H247">
         <v>586</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" t="s">
+        <v>16</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248">
+        <v>9945.5508298986297</v>
+      </c>
+      <c r="F248">
+        <v>3.7372688643259998E-5</v>
+      </c>
+      <c r="G248">
+        <v>8354262.6971148504</v>
+      </c>
+      <c r="H248">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249">
+        <v>9683.6624301227403</v>
+      </c>
+      <c r="F249">
+        <v>3.6388582906785101E-5</v>
+      </c>
+      <c r="G249">
+        <v>7911552.2054102803</v>
+      </c>
+      <c r="H249">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" t="s">
+        <v>17</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>1114593.76614403</v>
+      </c>
+      <c r="F250">
+        <v>4.1883417518307304E-3</v>
+      </c>
+      <c r="G250">
+        <v>685535538.23882794</v>
+      </c>
+      <c r="H250">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251">
+        <v>484032.933514459</v>
+      </c>
+      <c r="F251">
+        <v>1.8188647795090501E-3</v>
+      </c>
+      <c r="G251">
+        <v>367331529.15537602</v>
+      </c>
+      <c r="H251">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>82787.237936831807</v>
+      </c>
+      <c r="F252">
+        <v>3.1109203702900699E-4</v>
+      </c>
+      <c r="G252">
+        <v>51679411.041256897</v>
+      </c>
+      <c r="H252">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>5013.6091618997298</v>
+      </c>
+      <c r="F253">
+        <v>1.8839786492608399E-5</v>
+      </c>
+      <c r="G253">
+        <v>4537316.2915192498</v>
+      </c>
+      <c r="H253">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254">
+        <v>9916.2736902674005</v>
+      </c>
+      <c r="F254">
+        <v>3.7262673075242002E-5</v>
+      </c>
+      <c r="G254">
+        <v>2379905.6856641802</v>
+      </c>
+      <c r="H254">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255">
+        <v>141955.99149986301</v>
+      </c>
+      <c r="F255">
+        <v>5.3343220120305001E-4</v>
+      </c>
+      <c r="G255">
+        <v>77563256.424519598</v>
+      </c>
+      <c r="H255">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256">
+        <v>4744.12392292603</v>
+      </c>
+      <c r="F256">
+        <v>1.7827133890216399E-5</v>
+      </c>
+      <c r="G256">
+        <v>4343553.9549762504</v>
+      </c>
+      <c r="H256">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257">
+        <v>3990.23797627452</v>
+      </c>
+      <c r="F257">
+        <v>1.49942345125332E-5</v>
+      </c>
+      <c r="G257">
+        <v>1328749.2460994199</v>
+      </c>
+      <c r="H257">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>277588.88068153802</v>
+      </c>
+      <c r="F258">
+        <v>1.0431038949954201E-3</v>
+      </c>
+      <c r="G258">
+        <v>120797056.373366</v>
+      </c>
+      <c r="H258">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B259" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259">
+        <v>40310.836295685498</v>
+      </c>
+      <c r="F259">
+        <v>1.51477214243289E-4</v>
+      </c>
+      <c r="G259">
+        <v>21120021.545930099</v>
+      </c>
+      <c r="H259">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B260" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260">
+        <v>10128.079382407101</v>
+      </c>
+      <c r="F260">
+        <v>3.8058581549352003E-5</v>
+      </c>
+      <c r="G260">
+        <v>8461151.9482841399</v>
+      </c>
+      <c r="H260">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B261" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>402614.98361438001</v>
+      </c>
+      <c r="F261">
+        <v>1.51291815637775E-3</v>
+      </c>
+      <c r="G261">
+        <v>183430311.04172799</v>
+      </c>
+      <c r="H261">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B262" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262">
+        <v>77177.983341791201</v>
+      </c>
+      <c r="F262">
+        <v>2.90013976186865E-4</v>
+      </c>
+      <c r="G262">
+        <v>45404728.387843199</v>
+      </c>
+      <c r="H262">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263">
+        <v>4856.3253581567096</v>
+      </c>
+      <c r="F263">
+        <v>1.8248756520870199E-5</v>
+      </c>
+      <c r="G263">
+        <v>4225003.0615963396</v>
+      </c>
+      <c r="H263">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+      <c r="E264">
+        <v>27382.4059589551</v>
+      </c>
+      <c r="F264">
+        <v>1.02895671613375E-4</v>
+      </c>
+      <c r="G264">
+        <v>16593951.895155</v>
+      </c>
+      <c r="H264">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265">
+        <v>4077.0236657753399</v>
+      </c>
+      <c r="F265">
+        <v>1.5320351648514699E-5</v>
+      </c>
+      <c r="G265">
+        <v>1284262.4547192301</v>
+      </c>
+      <c r="H265">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+      <c r="E266">
+        <v>1219035.19113582</v>
+      </c>
+      <c r="F266">
+        <v>4.5808043639509804E-3</v>
+      </c>
+      <c r="G266">
+        <v>594341211.08776796</v>
+      </c>
+      <c r="H266">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267">
+        <v>145893.799888507</v>
+      </c>
+      <c r="F267">
+        <v>5.4822941951329E-4</v>
+      </c>
+      <c r="G267">
+        <v>112160445.68082801</v>
+      </c>
+      <c r="H267">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" t="s">
+        <v>17</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268">
+        <v>58081.7533787512</v>
+      </c>
+      <c r="F268">
+        <v>2.1825551163573E-4</v>
+      </c>
+      <c r="G268">
+        <v>26734342.276370499</v>
+      </c>
+      <c r="H268">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/zzz_lib/code and data/data/Excel/sandwichstats.xlsx
+++ b/zzz_lib/code and data/data/Excel/sandwichstats.xlsx
@@ -1,26 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D3792C-A85D-44C0-A156-70BDE87EDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{14D3792C-A85D-44C0-A156-70BDE87EDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A30FB6E-FFC6-4118-8659-A10CEFF97BDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{11BD239C-D33A-4BFF-876C-4327138ADBC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="sandwichstats" sheetId="1" r:id="rId1"/>
+    <sheet name="Information" sheetId="2" r:id="rId1"/>
+    <sheet name="sandwichstats" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="97">
   <si>
     <t>date</t>
   </si>
@@ -77,13 +100,308 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Laying in bed attempting to sleep</t>
+  </si>
+  <si>
+    <t>Napping</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>Religious Observation</t>
+  </si>
+  <si>
+    <t>Exercising</t>
+  </si>
+  <si>
+    <t>Eating/Drinking</t>
+  </si>
+  <si>
+    <t>Using/Waiting on Paid Personalcare Services (i.e., barbers)</t>
+  </si>
+  <si>
+    <t>Using/Waiting on Paid Healthcare Services (i.e., doctors)</t>
+  </si>
+  <si>
+    <t>Private Care Activities</t>
+  </si>
+  <si>
+    <t>Self Healthcare</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Watching Sports</t>
+  </si>
+  <si>
+    <t>Group sports</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Attending entertainment venues</t>
+  </si>
+  <si>
+    <t>Reading/writing for fun</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Computer Use for Leisure</t>
+  </si>
+  <si>
+    <t>Playing Games</t>
+  </si>
+  <si>
+    <t>Listening to Radio</t>
+  </si>
+  <si>
+    <t>Television/Movies</t>
+  </si>
+  <si>
+    <t>Attending parties</t>
+  </si>
+  <si>
+    <t>Socializing with others</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Education administrative activities (i.e., paying dues/signing up for classes)</t>
+  </si>
+  <si>
+    <t>Homework/at home training</t>
+  </si>
+  <si>
+    <t>School related club activities</t>
+  </si>
+  <si>
+    <t>Taking Classes</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Interacting with paid housework services (i.e., paid lawncare/cleaners)</t>
+  </si>
+  <si>
+    <t>Grocery Shopping</t>
+  </si>
+  <si>
+    <t>Organizing Household Finances</t>
+  </si>
+  <si>
+    <t>Cleaning/Feeding pets</t>
+  </si>
+  <si>
+    <t>Lawn Maintenance</t>
+  </si>
+  <si>
+    <t>Food/Drink Preparation</t>
+  </si>
+  <si>
+    <t>Item Repair (i.e. furniture/clothing)</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Housework</t>
+  </si>
+  <si>
+    <t>Helping Elder generally</t>
+  </si>
+  <si>
+    <t>Assisting Elder with Housework (Any items in Housework Category)</t>
+  </si>
+  <si>
+    <t>Providing Medical Care for Elder</t>
+  </si>
+  <si>
+    <t>Looking After Elder</t>
+  </si>
+  <si>
+    <t>Physical Care for Elder</t>
+  </si>
+  <si>
+    <t>Elder Care</t>
+  </si>
+  <si>
+    <t>Organization and planning for children</t>
+  </si>
+  <si>
+    <t>Attending Children's Events (i.e., sports)</t>
+  </si>
+  <si>
+    <t>Interacting with paid childcare (i.e., talking to daycare/teachers)</t>
+  </si>
+  <si>
+    <t>Providing Medical Care</t>
+  </si>
+  <si>
+    <t>Picking up/ Dropping off</t>
+  </si>
+  <si>
+    <t>Helping with Homework</t>
+  </si>
+  <si>
+    <t>Talking to Children</t>
+  </si>
+  <si>
+    <t>Playing with Children</t>
+  </si>
+  <si>
+    <t>Reading to Children</t>
+  </si>
+  <si>
+    <t>Physical Care for children</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>Income generating activities outside work</t>
+  </si>
+  <si>
+    <t>Traveling for work</t>
+  </si>
+  <si>
+    <t>Taking breaks at work</t>
+  </si>
+  <si>
+    <t>Formal Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Work </t>
+  </si>
+  <si>
+    <t>For each of the categories we group ATUS activity codes into one of the main catagories. The activities in this column are common examples of activities that would be coded as one of the catagories, but this column is not inclusive of all activities. ATUS has over 450 total unique activities which we codeded into broader catagories based on time use themes such as "child care".</t>
+  </si>
+  <si>
+    <t>EXAMPLES OF INCLUDED ACTIVITIES</t>
+  </si>
+  <si>
+    <t>Mean minutes per day and median minutes per day are computed using only responses from sandwich caregivers as we defined. However, the calculation for mean and median time per day for each activity includes all sandwich caregivers, even if they did not report time spent in that activity on their diary day.</t>
+  </si>
+  <si>
+    <t>Statistical Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sandwich caregiver is defined as an individual who has at least one child under the age of 10 living with them and who provides care to both their child and an elderly relative. Specifically, they must live in the same household as the child AND spend at least one minute in the day providing care to an elderly relative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition of Sandwich Caregiver </t>
+  </si>
+  <si>
+    <r>
+      <t>The 2020 ATUS was greatly affected by the COVID-19 pandemic. Data collection was suspended for a portion of 2020. The BLS advises that "Annual 2020 estimates cannot be produced due to the 2-month suspension in data collection." For our analysis, we include an observation for the year 2020 that includes the 4 years prior to it. However, we exclude 2020 from 5 year aggregates for the future years, meaning  the rolling average for 2023 includes 2023, 2022, 2021, 2019, and 2018. 2020 is excluded in the 5-year rolling averages for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2021, 2022, and 2023.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please refrain from making any interpretations about a "COVID" effect from this data, unless it is a comparison of the years 2021 and after to the years 2019 and prior. For more information, see https://www.bls.gov/tus/tables.htm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note on 2020 ATUS </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Years 2015-2023 utilizes five-year rolling averages. This method pools data from the current year (e.g., 2015) with the four preceding years (e.g., 2014, 2013, 2012, 2011) to provide a more stable view of trends over time. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given our dataset begins in 2011 when the Secondary Eldercare variable was introduced, years 2011, 2012, 2013, and 2014 do not have full 5-year rolling averages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This approach helps us navigate the challenges of smaller year-on-year sample sizes characteristic of the ATUS, especially when examining specific groups such as sandwich caregivers by gender. Utilization of 5 year rolling averages has become standard practice to help alleviate these concerns in the data. However, it does mean that the results are less resistant to sudden shocks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rolling-Yearly-Averages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All observations are in minutes. A full 24 hours of the day denotes 1440 minutes. Due to the inclusion of "Secondary Caregiving" where a person might be engaged in one task (i.e., cooking) while simultaneously engaged in another task (i.e., caring for a child), the total number of minutes often adds up to over 24 hours in a day, representing a high strain on the time demands of caregivers. There is quite literally not enough time in the day to meet their needs, requiring multi-tasking. </t>
+  </si>
+  <si>
+    <t>Time Frame</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <r>
+      <t> Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Care Board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, University of Kansas, using microdata from the American Time Use Survey (ATUS) curated by ipums.org. For more details, visit thecareboard.ku.edu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimating Time Use for Sandwich Caregivers in the U.S.: An Analysis using the American Time Use Survey, 2015-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +534,72 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -400,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -515,8 +899,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -559,12 +980,57 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -602,6 +1068,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{D8065233-9F42-4963-80E6-938948C2E749}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -619,6 +1086,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -937,10 +1472,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A520BB-B6E1-48F0-8B6C-3E2D712975B3}">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99EC4E-CA6F-4858-8250-80D91DD8C243}">
   <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
